--- a/04-summary/Custom_Regression_Results_Generation.xlsx
+++ b/04-summary/Custom_Regression_Results_Generation.xlsx
@@ -892,22 +892,22 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>0.2464093356588735</v>
+        <v>0.2464093356588662</v>
       </c>
       <c r="E2">
-        <v>0.2554921862440688</v>
+        <v>0.2554921862440687</v>
       </c>
       <c r="F2">
-        <v>0.9644495954309983</v>
+        <v>0.9644495954309702</v>
       </c>
       <c r="G2">
-        <v>0.3350916800381926</v>
+        <v>0.3350916800382063</v>
       </c>
       <c r="H2">
-        <v>-0.2550518874382767</v>
+        <v>-0.2550518874382838</v>
       </c>
       <c r="I2">
-        <v>0.7478705587560236</v>
+        <v>0.747870558756016</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -918,25 +918,25 @@
         <v>0.3829895983829886</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>0.2474595340551026</v>
+        <v>-0.08713200345124353</v>
       </c>
       <c r="E3">
-        <v>0.03757798218616008</v>
+        <v>0.03905475329866009</v>
       </c>
       <c r="F3">
-        <v>6.585226764683537</v>
+        <v>-2.231021734663803</v>
       </c>
       <c r="G3">
-        <v>7.898407163967655E-11</v>
+        <v>0.02593681891339846</v>
       </c>
       <c r="H3">
-        <v>0.173704241630647</v>
+        <v>-0.163785793317814</v>
       </c>
       <c r="I3">
-        <v>0.3212148264795581</v>
+        <v>-0.01047821358467303</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -947,25 +947,25 @@
         <v>0.3829895983829886</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>0.2800298237525529</v>
+        <v>0.2102887703172072</v>
       </c>
       <c r="E4">
-        <v>0.03992849871815263</v>
+        <v>0.05128566320524603</v>
       </c>
       <c r="F4">
-        <v>7.013282060245439</v>
+        <v>4.100342223822441</v>
       </c>
       <c r="G4">
-        <v>4.711913783497662E-12</v>
+        <v>4.516619217372354E-05</v>
       </c>
       <c r="H4">
-        <v>0.2016611108068253</v>
+        <v>0.1096290523965845</v>
       </c>
       <c r="I4">
-        <v>0.3583985366982805</v>
+        <v>0.31094848823783</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -976,25 +976,25 @@
         <v>0.3829895983829886</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0.2102887703172065</v>
+        <v>0.05864994627330285</v>
       </c>
       <c r="E5">
-        <v>0.05128566320524566</v>
+        <v>0.03823655879602703</v>
       </c>
       <c r="F5">
-        <v>4.100342223822455</v>
+        <v>1.533870937135611</v>
       </c>
       <c r="G5">
-        <v>4.516619217372086E-05</v>
+        <v>0.1254291859973375</v>
       </c>
       <c r="H5">
-        <v>0.1096290523965844</v>
+        <v>-0.01639795175738273</v>
       </c>
       <c r="I5">
-        <v>0.3109484882378285</v>
+        <v>0.1336978443039884</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1008,22 +1008,22 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>-0.04320812516373643</v>
+        <v>-0.04320812516373642</v>
       </c>
       <c r="E6">
-        <v>0.03397720064029946</v>
+        <v>0.0339772006402995</v>
       </c>
       <c r="F6">
-        <v>-1.271679960369908</v>
+        <v>-1.271679960369906</v>
       </c>
       <c r="G6">
-        <v>0.203830643407179</v>
+        <v>0.2038306434071796</v>
       </c>
       <c r="H6">
-        <v>-0.1098960690925789</v>
+        <v>-0.109896069092579</v>
       </c>
       <c r="I6">
-        <v>0.02347981876510604</v>
+        <v>0.02347981876510612</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1034,25 +1034,25 @@
         <v>0.3829895983829886</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>-0.0871320034512427</v>
+        <v>-0.07045618300363213</v>
       </c>
       <c r="E7">
-        <v>0.03905475329865999</v>
+        <v>0.04494976111432259</v>
       </c>
       <c r="F7">
-        <v>-2.231021734663788</v>
+        <v>-1.567442879717158</v>
       </c>
       <c r="G7">
-        <v>0.02593681891339951</v>
+        <v>0.1173790601993314</v>
       </c>
       <c r="H7">
-        <v>-0.163785793317813</v>
+        <v>-0.158680259511319</v>
       </c>
       <c r="I7">
-        <v>-0.01047821358467238</v>
+        <v>0.01776789350405479</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1063,25 +1063,25 @@
         <v>0.3829895983829886</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>0.2794965126780275</v>
+        <v>0.2800298237525527</v>
       </c>
       <c r="E8">
-        <v>0.04768933135844634</v>
+        <v>0.03992849871815267</v>
       </c>
       <c r="F8">
-        <v>5.860776503181678</v>
+        <v>7.013282060245428</v>
       </c>
       <c r="G8">
-        <v>6.560372435810039E-09</v>
+        <v>4.711913783497987E-12</v>
       </c>
       <c r="H8">
-        <v>0.185895409711823</v>
+        <v>0.201661110806825</v>
       </c>
       <c r="I8">
-        <v>0.373097615644232</v>
+        <v>0.3583985366982804</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1092,25 +1092,25 @@
         <v>0.3829895983829886</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>0.05755279834977491</v>
+        <v>0.2794965126780277</v>
       </c>
       <c r="E9">
-        <v>0.03028018663320181</v>
+        <v>0.0476893313584464</v>
       </c>
       <c r="F9">
-        <v>1.900675152598599</v>
+        <v>5.860776503181675</v>
       </c>
       <c r="G9">
-        <v>0.05767869702137183</v>
+        <v>6.560372435810135E-09</v>
       </c>
       <c r="H9">
-        <v>-0.0018789191047461</v>
+        <v>0.1858954097118231</v>
       </c>
       <c r="I9">
-        <v>0.1169845158042959</v>
+        <v>0.3730976156442323</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1121,25 +1121,25 @@
         <v>0.3829895983829886</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>-0.07045618300363225</v>
+        <v>0.2474595340551037</v>
       </c>
       <c r="E10">
-        <v>0.04494976111432262</v>
+        <v>0.03757798218616031</v>
       </c>
       <c r="F10">
-        <v>-1.56744287971716</v>
+        <v>6.585226764683529</v>
       </c>
       <c r="G10">
-        <v>0.117379060199331</v>
+        <v>7.898407163968114E-11</v>
       </c>
       <c r="H10">
-        <v>-0.1586802595113192</v>
+        <v>0.1737042416306477</v>
       </c>
       <c r="I10">
-        <v>0.01776789350405472</v>
+        <v>0.3212148264795597</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1150,25 +1150,25 @@
         <v>0.3829895983829886</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>0.05864994627330222</v>
+        <v>0.05755279834977495</v>
       </c>
       <c r="E11">
-        <v>0.03823655879602687</v>
+        <v>0.03028018663320186</v>
       </c>
       <c r="F11">
-        <v>1.533870937135601</v>
+        <v>1.900675152598597</v>
       </c>
       <c r="G11">
-        <v>0.1254291859973401</v>
+        <v>0.05767869702137204</v>
       </c>
       <c r="H11">
-        <v>-0.01639795175738304</v>
+        <v>-0.001878919104746149</v>
       </c>
       <c r="I11">
-        <v>0.1336978443039875</v>
+        <v>0.116984515804296</v>
       </c>
     </row>
   </sheetData>

--- a/04-summary/Custom_Regression_Results_Generation.xlsx
+++ b/04-summary/Custom_Regression_Results_Generation.xlsx
@@ -886,28 +886,28 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.3829895983829886</v>
+        <v>0.3829895983829887</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2">
-        <v>0.2464093356588662</v>
+        <v>0.246409335658877</v>
       </c>
       <c r="E2">
-        <v>0.2554921862440687</v>
+        <v>0.2554921862440681</v>
       </c>
       <c r="F2">
-        <v>0.9644495954309702</v>
+        <v>0.9644495954310153</v>
       </c>
       <c r="G2">
-        <v>0.3350916800382063</v>
+        <v>0.3350916800381839</v>
       </c>
       <c r="H2">
-        <v>-0.2550518874382838</v>
+        <v>-0.2550518874382716</v>
       </c>
       <c r="I2">
-        <v>0.747870558756016</v>
+        <v>0.7478705587560256</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -915,28 +915,28 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.3829895983829886</v>
+        <v>0.3829895983829887</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3">
-        <v>-0.08713200345124353</v>
+        <v>-0.08713200345124364</v>
       </c>
       <c r="E3">
-        <v>0.03905475329866009</v>
+        <v>0.03905475329866007</v>
       </c>
       <c r="F3">
-        <v>-2.231021734663803</v>
+        <v>-2.231021734663807</v>
       </c>
       <c r="G3">
-        <v>0.02593681891339846</v>
+        <v>0.0259368189133982</v>
       </c>
       <c r="H3">
-        <v>-0.163785793317814</v>
+        <v>-0.1637857933178141</v>
       </c>
       <c r="I3">
-        <v>-0.01047821358467303</v>
+        <v>-0.01047821358467317</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -944,28 +944,28 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>0.3829895983829886</v>
+        <v>0.3829895983829887</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>0.2102887703172072</v>
+        <v>0.05755279834977466</v>
       </c>
       <c r="E4">
-        <v>0.05128566320524603</v>
+        <v>0.03028018663320169</v>
       </c>
       <c r="F4">
-        <v>4.100342223822441</v>
+        <v>1.900675152598599</v>
       </c>
       <c r="G4">
-        <v>4.516619217372354E-05</v>
+        <v>0.05767869702137186</v>
       </c>
       <c r="H4">
-        <v>0.1096290523965845</v>
+        <v>-0.0018789191047461</v>
       </c>
       <c r="I4">
-        <v>0.31094848823783</v>
+        <v>0.1169845158042954</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -973,28 +973,28 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>0.3829895983829886</v>
+        <v>0.3829895983829887</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>0.05864994627330285</v>
+        <v>-0.07045618300363236</v>
       </c>
       <c r="E5">
-        <v>0.03823655879602703</v>
+        <v>0.04494976111432245</v>
       </c>
       <c r="F5">
-        <v>1.533870937135611</v>
+        <v>-1.567442879717168</v>
       </c>
       <c r="G5">
-        <v>0.1254291859973375</v>
+        <v>0.1173790601993291</v>
       </c>
       <c r="H5">
-        <v>-0.01639795175738273</v>
+        <v>-0.158680259511319</v>
       </c>
       <c r="I5">
-        <v>0.1336978443039884</v>
+        <v>0.01776789350405429</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1002,28 +1002,28 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.3829895983829886</v>
+        <v>0.3829895983829887</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>-0.04320812516373642</v>
+        <v>0.2474595340551042</v>
       </c>
       <c r="E6">
-        <v>0.0339772006402995</v>
+        <v>0.03757798218616036</v>
       </c>
       <c r="F6">
-        <v>-1.271679960369906</v>
+        <v>6.585226764683532</v>
       </c>
       <c r="G6">
-        <v>0.2038306434071796</v>
+        <v>7.898407163967912E-11</v>
       </c>
       <c r="H6">
-        <v>-0.109896069092579</v>
+        <v>0.1737042416306481</v>
       </c>
       <c r="I6">
-        <v>0.02347981876510612</v>
+        <v>0.3212148264795603</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1031,28 +1031,28 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.3829895983829886</v>
+        <v>0.3829895983829887</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>-0.07045618300363213</v>
+        <v>0.2102887703172064</v>
       </c>
       <c r="E7">
-        <v>0.04494976111432259</v>
+        <v>0.0512856632052457</v>
       </c>
       <c r="F7">
-        <v>-1.567442879717158</v>
+        <v>4.100342223822452</v>
       </c>
       <c r="G7">
-        <v>0.1173790601993314</v>
+        <v>4.516619217372143E-05</v>
       </c>
       <c r="H7">
-        <v>-0.158680259511319</v>
+        <v>0.1096290523965843</v>
       </c>
       <c r="I7">
-        <v>0.01776789350405479</v>
+        <v>0.3109484882378286</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1060,28 +1060,28 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0.3829895983829886</v>
+        <v>0.3829895983829887</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>0.2800298237525527</v>
+        <v>0.2794965126780276</v>
       </c>
       <c r="E8">
-        <v>0.03992849871815267</v>
+        <v>0.04768933135844638</v>
       </c>
       <c r="F8">
-        <v>7.013282060245428</v>
+        <v>5.860776503181676</v>
       </c>
       <c r="G8">
-        <v>4.711913783497987E-12</v>
+        <v>6.560372435810087E-09</v>
       </c>
       <c r="H8">
-        <v>0.201661110806825</v>
+        <v>0.1858954097118231</v>
       </c>
       <c r="I8">
-        <v>0.3583985366982804</v>
+        <v>0.3730976156442322</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1089,28 +1089,28 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.3829895983829886</v>
+        <v>0.3829895983829887</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>0.2794965126780277</v>
+        <v>0.2800298237525525</v>
       </c>
       <c r="E9">
-        <v>0.0476893313584464</v>
+        <v>0.03992849871815259</v>
       </c>
       <c r="F9">
-        <v>5.860776503181675</v>
+        <v>7.013282060245436</v>
       </c>
       <c r="G9">
-        <v>6.560372435810135E-09</v>
+        <v>4.711913783497747E-12</v>
       </c>
       <c r="H9">
-        <v>0.1858954097118231</v>
+        <v>0.2016611108068249</v>
       </c>
       <c r="I9">
-        <v>0.3730976156442323</v>
+        <v>0.35839853669828</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1118,28 +1118,28 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0.3829895983829886</v>
+        <v>0.3829895983829887</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>0.2474595340551037</v>
+        <v>0.05864994627330206</v>
       </c>
       <c r="E10">
-        <v>0.03757798218616031</v>
+        <v>0.03823655879602687</v>
       </c>
       <c r="F10">
-        <v>6.585226764683529</v>
+        <v>1.533870937135596</v>
       </c>
       <c r="G10">
-        <v>7.898407163968114E-11</v>
+        <v>0.1254291859973412</v>
       </c>
       <c r="H10">
-        <v>0.1737042416306477</v>
+        <v>-0.01639795175738322</v>
       </c>
       <c r="I10">
-        <v>0.3212148264795597</v>
+        <v>0.1336978443039873</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1147,28 +1147,28 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>0.3829895983829886</v>
+        <v>0.3829895983829887</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>0.05755279834977495</v>
+        <v>-0.04320812516373691</v>
       </c>
       <c r="E11">
-        <v>0.03028018663320186</v>
+        <v>0.0339772006402995</v>
       </c>
       <c r="F11">
-        <v>1.900675152598597</v>
+        <v>-1.27167996036992</v>
       </c>
       <c r="G11">
-        <v>0.05767869702137204</v>
+        <v>0.2038306434071746</v>
       </c>
       <c r="H11">
-        <v>-0.001878919104746149</v>
+        <v>-0.1098960690925795</v>
       </c>
       <c r="I11">
-        <v>0.116984515804296</v>
+        <v>0.02347981876510564</v>
       </c>
     </row>
   </sheetData>
